--- a/bin/print/CollectionReport.xlsx
+++ b/bin/print/CollectionReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Summery Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Collection_Report" localSheetId="0">Details!$A$1:$J$113</definedName>
+    <definedName name="Collection_Report" localSheetId="0">Details!$A$1:$J$39</definedName>
     <definedName name="CollectionChart_1" localSheetId="1">'Summery Chart'!$A$31:$J$47</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -36,7 +36,7 @@
     </textPr>
   </connection>
   <connection id="2" name="CollectionChart" type="6" refreshedVersion="3" background="1" refreshOnLoad="1">
-    <textPr prompt="0" codePage="437" sourceFile="E:\ICS\bin\print\CollectionChart.txt" tab="0" delimiter="|">
+    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Shaw\bin\print\CollectionChart.txt" delimiter="|">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -466,7 +466,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -475,10 +475,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -653,13 +653,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -671,7 +671,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -680,10 +680,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,10 +852,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -867,13 +867,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1060,34 +1060,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,11 +1097,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="100"/>
-        <c:axId val="66595840"/>
-        <c:axId val="66622208"/>
+        <c:axId val="56070144"/>
+        <c:axId val="56071680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66595840"/>
+        <c:axId val="56070144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,14 +1142,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66622208"/>
+        <c:crossAx val="56071680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66622208"/>
+        <c:axId val="56071680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66595840"/>
+        <c:crossAx val="56070144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,7 +1270,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1877,7 +1877,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Collection_Report" refreshOnLoad="1" growShrinkType="overwriteClear" removeDataOnSave="1" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Collection_Report" refreshOnLoad="1" growShrinkType="overwriteClear" fillFormulas="1" removeDataOnSave="1" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2273,44 +2273,28 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="5"/>
       <c r="C11" s="10"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="5"/>
+      <c r="A12" s="12"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="5"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="4"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="5"/>
+      <c r="A14" s="12"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:11">
       <c r="C15" s="10"/>
@@ -2325,128 +2309,88 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="5"/>
       <c r="C17" s="10"/>
       <c r="D17" s="6"/>
       <c r="E17" s="4"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="5"/>
+      <c r="A18" s="12"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="5"/>
       <c r="C19" s="10"/>
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="5"/>
+      <c r="A20" s="12"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="5"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9">
+      <c r="A22" s="12"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="12"/>
       <c r="C23" s="10"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="5"/>
+      <c r="A24" s="12"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="5"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="4"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="5"/>
+      <c r="A26" s="12"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="5"/>
       <c r="C27" s="10"/>
       <c r="D27" s="6"/>
       <c r="E27" s="4"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9">
+      <c r="A28" s="12"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="12"/>
       <c r="C29" s="10"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="5"/>
+      <c r="A30" s="12"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="5"/>
@@ -2459,786 +2403,324 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9">
+      <c r="B32" s="5"/>
       <c r="C32" s="10"/>
       <c r="D32" s="6"/>
       <c r="E32" s="4"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="12"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="12"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="12"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="12"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="C37" s="10"/>
       <c r="D37" s="6"/>
       <c r="E37" s="4"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="12"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="C39" s="10"/>
       <c r="D39" s="6"/>
       <c r="E39" s="4"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="C40" s="10"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="C41" s="10"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8">
       <c r="C42" s="10"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="12"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="C43" s="10"/>
     </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="5"/>
+    <row r="44" spans="1:8">
       <c r="C44" s="10"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="5"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="C45" s="10"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="5"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="C46" s="10"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" s="5"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="C47" s="10"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" s="5"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="C48" s="10"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="5"/>
+    </row>
+    <row r="49" spans="3:3">
       <c r="C49" s="10"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="5"/>
+    </row>
+    <row r="50" spans="3:3">
       <c r="C50" s="10"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="5"/>
+    </row>
+    <row r="51" spans="3:3">
       <c r="C51" s="10"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="5"/>
+    </row>
+    <row r="52" spans="3:3">
       <c r="C52" s="10"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="5"/>
+    </row>
+    <row r="53" spans="3:3">
       <c r="C53" s="10"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="5"/>
+    </row>
+    <row r="54" spans="3:3">
       <c r="C54" s="10"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="5"/>
+    </row>
+    <row r="55" spans="3:3">
       <c r="C55" s="10"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="5"/>
+    </row>
+    <row r="56" spans="3:3">
       <c r="C56" s="10"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="5"/>
+    </row>
+    <row r="57" spans="3:3">
       <c r="C57" s="10"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="5"/>
+    </row>
+    <row r="58" spans="3:3">
       <c r="C58" s="10"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="5"/>
+    </row>
+    <row r="59" spans="3:3">
       <c r="C59" s="10"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="5"/>
+    </row>
+    <row r="60" spans="3:3">
       <c r="C60" s="10"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="5"/>
+    </row>
+    <row r="61" spans="3:3">
       <c r="C61" s="10"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="5"/>
+    </row>
+    <row r="62" spans="3:3">
       <c r="C62" s="10"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="5"/>
+    </row>
+    <row r="63" spans="3:3">
       <c r="C63" s="10"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="5"/>
+    </row>
+    <row r="64" spans="3:3">
       <c r="C64" s="10"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="B65" s="5"/>
+    </row>
+    <row r="65" spans="3:3">
       <c r="C65" s="10"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="8"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="B66" s="5"/>
+    </row>
+    <row r="66" spans="3:3">
       <c r="C66" s="10"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="8"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="B67" s="5"/>
+    </row>
+    <row r="67" spans="3:3">
       <c r="C67" s="10"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="B68" s="5"/>
+    </row>
+    <row r="68" spans="3:3">
       <c r="C68" s="10"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="8"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="B69" s="5"/>
+    </row>
+    <row r="69" spans="3:3">
       <c r="C69" s="10"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="B70" s="5"/>
+    </row>
+    <row r="70" spans="3:3">
       <c r="C70" s="10"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" s="5"/>
+    </row>
+    <row r="71" spans="3:3">
       <c r="C71" s="10"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="B72" s="5"/>
+    </row>
+    <row r="72" spans="3:3">
       <c r="C72" s="10"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="B73" s="5"/>
+    </row>
+    <row r="73" spans="3:3">
       <c r="C73" s="10"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="1:9">
+    </row>
+    <row r="74" spans="3:3">
       <c r="C74" s="10"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="12"/>
+    </row>
+    <row r="75" spans="3:3">
       <c r="C75" s="10"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="B76" s="5"/>
+    <row r="76" spans="3:3">
       <c r="C76" s="10"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="8"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="B77" s="5"/>
+    </row>
+    <row r="77" spans="3:3">
       <c r="C77" s="10"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="8"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="B78" s="5"/>
+    </row>
+    <row r="78" spans="3:3">
       <c r="C78" s="10"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="8"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="B79" s="5"/>
+    </row>
+    <row r="79" spans="3:3">
       <c r="C79" s="10"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="8"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="B80" s="5"/>
+    </row>
+    <row r="80" spans="3:3">
       <c r="C80" s="10"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="8"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="B81" s="5"/>
+    </row>
+    <row r="81" spans="3:3">
       <c r="C81" s="10"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="8"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="B82" s="5"/>
+    </row>
+    <row r="82" spans="3:3">
       <c r="C82" s="10"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="8"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="B83" s="5"/>
+    </row>
+    <row r="83" spans="3:3">
       <c r="C83" s="10"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="8"/>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" spans="3:3">
       <c r="C84" s="10"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="12"/>
+    </row>
+    <row r="85" spans="3:3">
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="1:9">
-      <c r="B86" s="5"/>
+    <row r="86" spans="3:3">
       <c r="C86" s="10"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="8"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="B87" s="5"/>
+    </row>
+    <row r="87" spans="3:3">
       <c r="C87" s="10"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="8"/>
-    </row>
-    <row r="88" spans="1:9">
+    </row>
+    <row r="88" spans="3:3">
       <c r="C88" s="10"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="12"/>
+    </row>
+    <row r="89" spans="3:3">
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="B90" s="5"/>
+    <row r="90" spans="3:3">
       <c r="C90" s="10"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="8"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="B91" s="5"/>
+    </row>
+    <row r="91" spans="3:3">
       <c r="C91" s="10"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="8"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="B92" s="5"/>
+    </row>
+    <row r="92" spans="3:3">
       <c r="C92" s="10"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="8"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="B93" s="5"/>
+    </row>
+    <row r="93" spans="3:3">
       <c r="C93" s="10"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="8"/>
-    </row>
-    <row r="94" spans="1:9">
+    </row>
+    <row r="94" spans="3:3">
       <c r="C94" s="10"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="12"/>
+    </row>
+    <row r="95" spans="3:3">
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="1:9">
-      <c r="B96" s="5"/>
+    <row r="96" spans="3:3">
       <c r="C96" s="10"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="8"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="B97" s="5"/>
+    </row>
+    <row r="97" spans="3:3">
       <c r="C97" s="10"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="8"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="B98" s="5"/>
+    </row>
+    <row r="98" spans="3:3">
       <c r="C98" s="10"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="8"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="B99" s="5"/>
+    </row>
+    <row r="99" spans="3:3">
       <c r="C99" s="10"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="8"/>
-    </row>
-    <row r="100" spans="1:9">
+    </row>
+    <row r="100" spans="3:3">
       <c r="C100" s="10"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="12"/>
+    </row>
+    <row r="101" spans="3:3">
       <c r="C101" s="10"/>
     </row>
-    <row r="102" spans="1:9">
-      <c r="B102" s="5"/>
+    <row r="102" spans="3:3">
       <c r="C102" s="10"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="8"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="B103" s="5"/>
+    </row>
+    <row r="103" spans="3:3">
       <c r="C103" s="10"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="8"/>
-    </row>
-    <row r="104" spans="1:9">
+    </row>
+    <row r="104" spans="3:3">
       <c r="C104" s="10"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="12"/>
+    </row>
+    <row r="105" spans="3:3">
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="1:9">
-      <c r="B106" s="5"/>
+    <row r="106" spans="3:3">
       <c r="C106" s="10"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="8"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="B107" s="5"/>
+    </row>
+    <row r="107" spans="3:3">
       <c r="C107" s="10"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="8"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="B108" s="5"/>
+    </row>
+    <row r="108" spans="3:3">
       <c r="C108" s="10"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="8"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="B109" s="5"/>
+    </row>
+    <row r="109" spans="3:3">
       <c r="C109" s="10"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="8"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="B110" s="5"/>
+    </row>
+    <row r="110" spans="3:3">
       <c r="C110" s="10"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="8"/>
-    </row>
-    <row r="111" spans="1:9">
+    </row>
+    <row r="111" spans="3:3">
       <c r="C111" s="10"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="12"/>
+    </row>
+    <row r="112" spans="3:3">
       <c r="C112" s="10"/>
     </row>
-    <row r="113" spans="3:8">
+    <row r="113" spans="3:3">
       <c r="C113" s="10"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-    </row>
-    <row r="114" spans="3:8">
+    </row>
+    <row r="114" spans="3:3">
       <c r="C114" s="10"/>
     </row>
-    <row r="115" spans="3:8">
+    <row r="115" spans="3:3">
       <c r="C115" s="10"/>
     </row>
-    <row r="116" spans="3:8">
+    <row r="116" spans="3:3">
       <c r="C116" s="10"/>
     </row>
-    <row r="117" spans="3:8">
+    <row r="117" spans="3:3">
       <c r="C117" s="10"/>
     </row>
-    <row r="118" spans="3:8">
+    <row r="118" spans="3:3">
       <c r="C118" s="10"/>
     </row>
-    <row r="119" spans="3:8">
+    <row r="119" spans="3:3">
       <c r="C119" s="10"/>
     </row>
-    <row r="120" spans="3:8">
+    <row r="120" spans="3:3">
       <c r="C120" s="10"/>
     </row>
-    <row r="121" spans="3:8">
+    <row r="121" spans="3:3">
       <c r="C121" s="10"/>
     </row>
-    <row r="122" spans="3:8">
+    <row r="122" spans="3:3">
       <c r="C122" s="10"/>
     </row>
-    <row r="123" spans="3:8">
+    <row r="123" spans="3:3">
       <c r="C123" s="10"/>
     </row>
-    <row r="124" spans="3:8">
+    <row r="124" spans="3:3">
       <c r="C124" s="10"/>
     </row>
-    <row r="125" spans="3:8">
+    <row r="125" spans="3:3">
       <c r="C125" s="10"/>
     </row>
-    <row r="126" spans="3:8">
+    <row r="126" spans="3:3">
       <c r="C126" s="10"/>
     </row>
-    <row r="127" spans="3:8">
+    <row r="127" spans="3:3">
       <c r="C127" s="10"/>
     </row>
-    <row r="128" spans="3:8">
+    <row r="128" spans="3:3">
       <c r="C128" s="10"/>
     </row>
     <row r="129" spans="3:3">
